--- a/combined_courses_filtered_with_counts.xlsx
+++ b/combined_courses_filtered_with_counts.xlsx
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="371">
